--- a/G35SMU_0328/G35SMU_3gyk.xlsx
+++ b/G35SMU_0328/G35SMU_3gyk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A6736-4B2F-464D-BC45-C90123AE660C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B4DFA-4DDF-4AC2-AA86-11FAA78F1D6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1469,6 +1469,7 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="33"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1549,7 +1550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B4C7B9A-E97A-4E0E-AB22-6EDE03C36941}" type="CELLRANGE">
+                    <a:fld id="{8868C39D-9DDE-42C8-A4F3-C6FE73E29A1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
@@ -1568,7 +1569,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1583,8 +1583,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{754C5FB5-1DC9-4B78-8DDB-04EDF8FA3F16}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{28C4BCC1-9D2E-4624-8A3B-2BE6A5FFE453}" type="CELLRANGE">
+                      <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
                     </a:fld>
@@ -1617,8 +1617,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C6DB47D-495F-4C08-833E-61441E3578BE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4725907D-5FC4-4F3A-B805-F88BC552D2E8}" type="CELLRANGE">
+                      <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
                     </a:fld>
@@ -1651,8 +1651,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCF66933-3789-4D0B-B4C7-6122B532F762}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{10FE93BB-10D0-4944-99EB-18907E9070BF}" type="CELLRANGE">
+                      <a:rPr lang="hu-HU"/>
                       <a:pPr/>
                       <a:t>[CELLATARTOMÁNY]</a:t>
                     </a:fld>
@@ -3457,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
